--- a/biology/Zoologie/Daboia/Daboia.xlsx
+++ b/biology/Zoologie/Daboia/Daboia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daboia est un genre de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daboia est un genre de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent dans le sud de l'Asie et en Afrique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent dans le sud de l'Asie et en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des serpents venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des serpents venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 janvier 2014) :
 Daboia deserti (Anderson, 1892)
 Daboia mauritanica (Duméril &amp; Bibron, 1848)
 Daboia palaestinae (Werner, 1938)
@@ -608,9 +626,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a longtemps été considéré comme monotypique, les études phylogénétiques ont démontré que Vipera palaestinae devait être placée dans ce genre[3] et Daboia russelii siamensis élevée au rang d'espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a longtemps été considéré comme monotypique, les études phylogénétiques ont démontré que Vipera palaestinae devait être placée dans ce genre et Daboia russelii siamensis élevée au rang d'espèce.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1840 : Synopsis of the contents of the British Museum. 42nd edition, London, p. 1-370.</t>
         </is>
